--- a/src/main/resources/excel/appleT.xlsx
+++ b/src/main/resources/excel/appleT.xlsx
@@ -3404,7 +3404,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-BLU</t>
+          <t>AP04-IP-13-128-BLU-YF</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-GRE</t>
+          <t>AP04-IP-13-128-GRE-YF</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-MDN</t>
+          <t>AP04-IP-13-128-MDN-YF</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-PNK</t>
+          <t>AP04-IP-13-128-PNK-YF</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-RED</t>
+          <t>AP04-IP-13-128-RED-YF</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-STR</t>
+          <t>AP04-IP-13-128-STR-YF</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AP04-IP-13-256-BLU</t>
+          <t>AP04-IP-13-256-BLU-YF</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AP04-IP-13-256-GRE</t>
+          <t>AP04-IP-13-256-GRE-YF</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AP04-IP-13-256-MDN</t>
+          <t>AP04-IP-13-256-MDN-YF</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AP04-IP-13-256-PNK</t>
+          <t>AP04-IP-13-256-PNK-YF</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AP04-IP-13-256-RED</t>
+          <t>AP04-IP-13-256-RED-YF</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AP04-IP-13-256-STR</t>
+          <t>AP04-IP-13-256-STR-YF</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AP04-IP-13-512-BLU</t>
+          <t>AP04-IP-13-512-BLU-YF</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AP04-IP-13-512-GRE</t>
+          <t>AP04-IP-13-512-GRE-YF</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AP04-IP-13-512-MDN</t>
+          <t>AP04-IP-13-512-MDN-YF</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AP04-IP-13-512-PNK</t>
+          <t>AP04-IP-13-512-PNK-YF</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AP04-IP-13-512-RED</t>
+          <t>AP04-IP-13-512-RED-YF</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AP04-IP-13-512-STR</t>
+          <t>AP04-IP-13-512-STR-YF</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-128-BLU</t>
+          <t>AP04-IP-13M-128-BLU-YF</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-128-GRE</t>
+          <t>AP04-IP-13M-128-GRE-YF</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-128-MDN</t>
+          <t>AP04-IP-13M-128-MDN-YF</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-128-PNK</t>
+          <t>AP04-IP-13M-128-PNK-YF</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-128-RED</t>
+          <t>AP04-IP-13M-128-RED-YF</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-128-STR</t>
+          <t>AP04-IP-13M-128-STR-YF</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-256-BLU</t>
+          <t>AP04-IP-13M-256-BLU-YF</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-256-GRE</t>
+          <t>AP04-IP-13M-256-GRE-YF</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-256-MDN</t>
+          <t>AP04-IP-13M-256-MDN-YF</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-256-PNK</t>
+          <t>AP04-IP-13M-256-PNK-YF</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-256-RED</t>
+          <t>AP04-IP-13M-256-RED-YF</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-256-STR</t>
+          <t>AP04-IP-13M-256-STR-YF</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-512-BLU</t>
+          <t>AP04-IP-13M-512-BLU-YF</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-512-GRE</t>
+          <t>AP04-IP-13M-512-GRE-YF</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-512-MDN</t>
+          <t>AP04-IP-13M-512-MDN-YF</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-512-PNK</t>
+          <t>AP04-IP-13M-512-PNK-YF</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-512-RED</t>
+          <t>AP04-IP-13M-512-RED-YF</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AP04-IP-13M-512-STR</t>
+          <t>AP04-IP-13M-512-STR-YF</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-128-GLD</t>
+          <t>AP04-IP-13P-128-GLD-YF</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-128-GPH</t>
+          <t>AP04-IP-13P-128-GPH-YF</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-128-GRE</t>
+          <t>AP04-IP-13P-128-GRE-YF</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-128-SBL</t>
+          <t>AP04-IP-13P-128-SBL-YF</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-128-SLV</t>
+          <t>AP04-IP-13P-128-SLV-YF</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-1T-GLD</t>
+          <t>AP04-IP-13P-1T-GLD-YF</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-1T-GPH</t>
+          <t>AP04-IP-13P-1T-GPH-YF</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-1T-GRE</t>
+          <t>AP04-IP-13P-1T-GRE-YF</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-1T-SBL</t>
+          <t>AP04-IP-13P-1T-SBL-YF</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-1T-SLV</t>
+          <t>AP04-IP-13P-1T-SLV-YF</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-256-GLD</t>
+          <t>AP04-IP-13P-256-GLD-YF</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-256-GPH</t>
+          <t>AP04-IP-13P-256-GPH-YF</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-256-GRE</t>
+          <t>AP04-IP-13P-256-GRE-YF</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-256-SBL</t>
+          <t>AP04-IP-13P-256-SBL-YF</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-256-SLV</t>
+          <t>AP04-IP-13P-256-SLV-YF</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-512-GLD</t>
+          <t>AP04-IP-13P-512-GLD-YF</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-512-GPH</t>
+          <t>AP04-IP-13P-512-GPH-YF</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-512-GRE</t>
+          <t>AP04-IP-13P-512-GRE-YF</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-512-SBL</t>
+          <t>AP04-IP-13P-512-SBL-YF</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>AP04-IP-13P-512-SLV</t>
+          <t>AP04-IP-13P-512-SLV-YF</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-128-GLD</t>
+          <t>AP04-IP-13PM-128-GLD-YF</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-128-GPH</t>
+          <t>AP04-IP-13PM-128-GPH-YF</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-128-GRE</t>
+          <t>AP04-IP-13PM-128-GRE-YF</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-128-SBL</t>
+          <t>AP04-IP-13PM-128-SBL-YF</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-128-SLV</t>
+          <t>AP04-IP-13PM-128-SLV-YF</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-1T-GLD</t>
+          <t>AP04-IP-13PM-1T-GLD-YF</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-1T-GPH</t>
+          <t>AP04-IP-13PM-1T-GPH-YF</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-1T-GRE</t>
+          <t>AP04-IP-13PM-1T-GRE-YF</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-1T-SBL</t>
+          <t>AP04-IP-13PM-1T-SBL-YF</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-1T-SLV</t>
+          <t>AP04-IP-13PM-1T-SLV-YF</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-256-GLD</t>
+          <t>AP04-IP-13PM-256-GLD-YF</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-256-GPH</t>
+          <t>AP04-IP-13PM-256-GPH-YF</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-256-GRE</t>
+          <t>AP04-IP-13PM-256-GRE-YF</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-256-SBL</t>
+          <t>AP04-IP-13PM-256-SBL-YF</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-256-SLV</t>
+          <t>AP04-IP-13PM-256-SLV-YF</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-512-GLD</t>
+          <t>AP04-IP-13PM-512-GLD-YF</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-512-GPH</t>
+          <t>AP04-IP-13PM-512-GPH-YF</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-512-GRE</t>
+          <t>AP04-IP-13PM-512-GRE-YF</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-512-SBL</t>
+          <t>AP04-IP-13PM-512-SBL-YF</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>AP04-IP-13PM-512-SLV</t>
+          <t>AP04-IP-13PM-512-SLV-YF</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>AP05-WAT-S7-45-STAR-SP-DEMO</t>
+          <t>AP06-ACCS-GP-BD-S7-45-STAR-SP-DEMO</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -9146,7 +9146,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>AP06-ACCS-HPODS-BLU</t>
+          <t>AP06-ACCS-HPOD-BLU</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AP06-ACCS-HPOD-OR</t>
+          <t>AP06-ACCS-HPOD-BLU</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>AP06-ACCS-HPODS-WT</t>
+          <t>AP06-ACCS-HPOD-WT</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -10189,6 +10189,138 @@
         </is>
       </c>
       <c r="D459" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>103BV96</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP13P-SC-MID</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>MM2K3FE/A ：IPHONE 13 PRO SI CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>103BV92</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP13-SC-MID</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>MM2A3FE/A ：IPHONE 13 SI CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>103CH67</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP13-SC-RED</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>MM2C3FE/A ：IPHONE 13 SI CASE RED-FAE</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>103CE70</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-45BD-ELA-SP</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>MKUY3FE/A ：APPLE WATCH 45 ENGLISH LAVENDER SP-FAE</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>103CA35</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-41BD-ELA-SP-FAE</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>MKUH3FE/A ：APPLE WATCH 41 ENGLISH LAVENDER SP-FAE</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>103CA34</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-41BD-MAR-SP</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>MKUF3FE/A ：APPLE WATCH 41 MARI            SYST</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
         <is>
           <t>个</t>
         </is>

--- a/src/main/resources/excel/appleT.xlsx
+++ b/src/main/resources/excel/appleT.xlsx
@@ -3470,7 +3470,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AP04-IP-13-128-GRN</t>
+          <t>AP04-IP-13-128-GRN-YJ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -10323,6 +10323,4472 @@
       <c r="D465" t="inlineStr">
         <is>
           <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>103CU41</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-BLU</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>MPVG3CH/A：IPHONE 14 BLUE 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>103CV06</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-BLU-YJ</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>3L235CH/A：IPHONE 14 BLU 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>103CU37</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-MID</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>MPU93CH/A：IPHONE 14 MIDNIGHT 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>103CV02</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-MID-YJ</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>3L211CH/A：IPHONE 14 MDN 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>103CU39</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-PUR</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>MPUW3CH/A：IPHONE 14 PURPLE 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>103CV04</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-PUR-YJ</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>3L223CH/A：IPHONE 14 PUR 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>103CU40</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-RED</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>MPV63CH/A：IPHONE 14 RED 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>103CV05</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-RED-YJ</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>3L229CH/A：IPHONE 14 RED 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>103CV03</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-STL-YJ</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>3L217CH/A：IPHONE 14 STL 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>103CU38</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-128-STR</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>MPUJ3CH/A：IPHONE 14 STARLIGHT 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>103CU46</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-256-BLU</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>MPWL3CH/A：IPHONE 14 BLUE 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>103CU42</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-256-MID</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>MPVU3CH/A：IPHONE 14 MIDNIGHT 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>103CU44</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-256-PUR</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>MPW73CH/A：IPHONE 14 PURPLE 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>103CU45</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-256-RED</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>MPWE3CH/A：IPHONE 14 RED 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>103CU43</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-256-STR</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>MPW13CH/A：IPHONE 14 STARLIGHT 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>103CU51</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-512-BLU</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>MPXK3CH/A：IPHONE 14 BLUE 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>103CU47</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-512-MID</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>MPWT3CH/A：IPHONE 14 MIDNIGHT 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>103CU49</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-512-PUR</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>MPX63CH/A：IPHONE 14 PURPLE 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>103CU50</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-512-RED</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>MPXD3CH/A：IPHONE 14 RED 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>103CU48</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>AP04-IP-14-512-STR</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>MPX03CH/A：IPHONE 14 STARLIGHT 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>103CU72</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-DPUP</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>MQ0D3CH/A：IPHONE 14 PRO DEEP PURPLE 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>103CU71</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-GLD</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>MQ053CH/A：IPHONE 14 PRO GOLD 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>103CV09</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-GLD-YJ</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>3L253CH/A：IPHONE 14 PRO GLD 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>103CV10</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-PUR-YJ</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>3L259CH/A：IPHONE 14 PRO PUR 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>103CU69</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-SBLK</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>MPXR3CH/A：IPHONE 14 PRO SPACE BLACK 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>103CV07</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-SBLU-YJ</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>3L241CH/A：IPHONE 14 PRO SBL 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>103CU70</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-SLV</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>MPXY3CH/A：IPHONE 14 PRO SILVER 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>103CV08</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-128-SLV-YJ</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>3L247CH/A：IPHONE 14 PRO SLV 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>103CU84</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-1T-DPUP</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>MQ2Y3CH/A：IPHONE 14 PRO DEEP PURPLE 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>103CU83</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-1T-GLD</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>MQ2R3CH/A：IPHONE 14 PRO GOLD 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>103CU81</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-1T-SBLK</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>MQ2D3CH/A：IPHONE 14 PRO SPACE BLACK 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>103CU82</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-1T-SLV</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>MQ2K3CH/A：IPHONE 14 PRO SILVER 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>103CU76</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-256-DPUP</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>MQ1C3CH/A：IPHONE 14 PRO DEEP PURPLE 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>103CU75</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-256-GLD</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>MQ143CH/A：IPHONE 14 PRO GOLD 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>103CU73</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-256-SBLK</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>MQ0M3CH/A：IPHONE 14 PRO SPACE BLACK 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>103CU74</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-256-SLV</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>MQ0W3CH/A：IPHONE 14 PRO SILVER 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>103CU80</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-512-DPUP</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>MQ263CH/A：IPHONE 14 PRO DEEP PURPLE 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>103CU79</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-512-GLD</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>MQ203CH/A：IPHONE 14 PRO GOLD 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>103CU77</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-512-SBLK</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>MQ1J3CH/A：IPHONE 14 PRO SPACE BLACK 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>103CU78</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>AP04-IP-14P-512-SLV</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>MQ1R3CH/A：IPHONE 14 PRO SILVER 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>103CU58</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-BLU</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>MQ3A3CH/A：IPHONE 14 PLUS BLUE 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>103CV15</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-BLU-YJ</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>3L269CH/A：IPHONE 14 PLUS BLU 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>103CU52</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-MID</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>MQ353CH/A：IPHONE 14 PLUS MIDNIGHT 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>103CV11</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-MID-YJ</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>3L265CH/A：IPHONE 14 PLUS MDN 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>103CU54</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-PUR</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>MQ373CH/A：IPHONE 14 PLUS PURPLE 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>103CV13</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-PUR-YJ</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>3L267CH/A：IPHONE 14 PLUS PUR 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>103CU55</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-RED</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>MQ393CH/A：IPHONE 14 PLUS RED 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>103CV14</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-RED-YJ</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>3L268CH/A：IPHONE 14 PLUS RED 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>103CV12</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-STL-YJ</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>3L266CH/A：IPHONE 14 PLUS STL 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>103CU53</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-128-STR</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>MQ363CH/A：IPHONE 14 PLUS STARLIGHT 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>103CU63</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-256-BLU</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>MQ3G3CH/A：IPHONE 14 PLUS BLUE 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>103CU59</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-256-MID</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>MQ3C3CH/A：IPHONE 14 PLUS MIDNIGHT 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>103CU61</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-256-PUR</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>MQ3E3CH/A：IPHONE 14 PLUS PURPLE 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>103CU62</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-256-RED</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>MQ3F3CH/A：IPHONE 14 PLUS RED 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>103CU60</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-256-STR</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>MQ3D3CH/A：IPHONE 14 PLUS STARLIGHT 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>103CU68</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-512-BLU</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>MQ3Q3CH/A：IPHONE 14 PLUS BLUE 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>103CU64</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-512-MID</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>MQ3H3CH/A：IPHONE 14 PLUS MIDNIGHT 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>103CU66</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-512-PUR</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>MQ3K3CH/A：IPHONE 14 PLUS PURPLE 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>103CU67</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-512-RED</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>MQ3P3CH/A：IPHONE 14 PLUS RED 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>103CU65</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PL-512-STR</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>MQ3J3CH/A：IPHONE 14 PLUS STARLIGHT 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>103CU88</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-DPUP</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>MQ863CH/A：IPHONE 14 PRO MAX DEEP PURPLE 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>103CU87</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-GLD</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>MQ853CH/A：IPHONE 14 PRO MAX GOLD 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>103CV18</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-GLD-YJ</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>3L305CH/A：IPHONE 14 PRO MAX GLD 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>103CV19</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-PUR-YJ</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>3L306CH/A：IPHONE 14 PRO MAX PUR 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>103CU85</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-SBLK</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>MQ833CH/A：IPHONE 14 PRO MAX SPACE BLACK 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>103CV16</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-SBL-YJ</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>3L303CH/A：IPHONE 14 PRO MAX SBL 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>103CU86</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-SLV</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>MQ843CH/A：IPHONE 14 PRO MAX SILVER 128GB-CHN</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>103CV17</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-128-SLV-YJ</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>3L304CH/A：IPHONE 14 PRO MAX SLV 128GB DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>103CV01</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-1T-DPUP</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>MQ8M3CH/A：IPHONE 14 PRO MAX DEEP PURPLE 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>103CU99</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-1T-GLD</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>MQ8L3CH/A：IPHONE 14 PRO MAX GOLD 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>103CU97</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-1T-SBLK</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>MQ8H3CH/A：IPHONE 14 PRO MAX SPACE BLACK 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>103CU98</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-1T-SLV</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>MQ8J3CH/A：IPHONE 14 PRO MAX SILVER 1TB-CHN</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>103CU92</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-256-DPUP</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>MQ8A3CH/A：IPHONE 14 PRO MAX DEEP PURPLE 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>103CU91</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-256-GLD</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>MQ893CH/A：IPHONE 14 PRO MAX GOLD 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>103CU89</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-256-SBLK</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>MQ873CH/A：IPHONE 14 PRO MAX SPACE BLACK 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>103CU90</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-256-SLV</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>MQ883CH/A：IPHONE 14 PRO MAX SILVER 256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>103CU96</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-512-DPUP</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>MQ8G3CH/A：IPHONE 14 PRO MAX DEEP PURPLE 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>103CU95</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-512-GLD</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>MQ8F3CH/A：IPHONE 14 PRO MAX GOLD 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>103CU93</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-512-SBLK</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>MQ8D3CH/A：IPHONE 14 PRO MAX SPACE BLACK 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>103CU94</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>AP04-IP-14PM-512-SLV</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>MQ8E3CH/A：IPHONE 14 PRO MAX SILVER 512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>103CW37</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-MID-AL-MID-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>MNP53CH/A：APPLE WATCH S8 41 MID AL MID SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>103CW39</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-RED-AL-RED-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>MNP73CH/A：APPLE WATCH S8 41 RED AL RED SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>103CW40</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-SIL-AL-WT-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>MP6K3CH/A：APPLE WATCH S8 41 SIL AL WT SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>103CW38</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-STR-AL-ST-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>MNP63CH/A：APPLE WATCH S8 41 STAR AL ST SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>103CW33</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-MID-AL-MID-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>MNP13CH/A：APPLE WATCH S8 45 MID AL MID SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>103CW35</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-RED-AL-RED-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>MNP43CH/A：APPLE WATCH S8 45 RED AL RED SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>103CW36</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-SIL-AL-WT-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>MP6N3CH/A：APPLE WATCH S8 45 SIL AL WT SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>103CW34</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-STR-AL-ST-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>MNP23CH/A：APPLE WATCH S8 45 STAR AL ST SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>103CW31</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-40-MID-AL-MID-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>MNPM3CH/A：APPLE WATCH SE 40 MID AL MID SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>103CW25</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-40-MID-AL-MID-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>MNJT3CH/A：APPLE WATCH SE 40 MID AL MID SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>103CW32</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-40-SIL-AL-WT-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>MNPQ3CH/A：APPLE WATCH SE 40 SIL AL WT SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>103CW26</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-40-SIL-AL-WT-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>MNJV3CH/A：APPLE WATCH SE 40 SIL AL WT SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>103CW30</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-40-STR-AL-ST-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>MNPJ3CH/A：APPLE WATCH SE 40 STAR AL ST SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>103CW24</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-40-STR-AL-ST-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>MNJP3CH/A：APPLE WATCH SE 40 STAR AL ST SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>103CW28</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-44-MID-AL-MID-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>MNQ03CH/A：APPLE WATCH SE 44 MID AL MID SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>103CW22</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-44-MID-AL-MID-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>MNK03CH/A：APPLE WATCH SE 44 MID AL MID SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>103CW29</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-44-SIL-AL-WT-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>MNQ33CH/A：APPLE WATCH SE 44 SIL AL WT SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>103CW23</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-44-SIL-AL-WT-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>MNK23CH/A：APPLE WATCH SE 44 SIL AL WT SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>103CW27</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-44-STR-AL-ST-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>MNPW3CH/A：APPLE WATCH SE 44 STAR AL ST SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>103CW21</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>AP05-WAT-SE-22-44-STR-AL-ST-SP-GPS</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>MNJX3CH/A：APPLE WATCH SE 44 STAR AL ST SP GPS-CHN</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>103CW58</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-BLK-G-TL-ML-CEL</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>MQFH3CH/A：APPLE WATCH ULTRA 49 TI BLK/G TL M/L-CHN</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>103CW57</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-BLK-G-TL-SM-CEL</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>MQFG3CH/A：APPLE WATCH ULTRA 49 TI BLK/G TL S/M-CHN</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>103CW56</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-BLU-G-TL-ML-CEL</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>MQFF3CH/A：APPLE WATCH ULTRA 49 TI BLU/G TL M/L-CHN</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>103CW54</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-BLU-G-TL-SM-CEL</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>MNHT3CH/A：APPLE WATCH ULTRA 49 TI BLU/G TL S/M-CHN</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>103CW48</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-GRE-ALP-L-CEL</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>MQF93CH/A：APPLE WATCH ULTRA 49 TI GREEN ALP L-CHN</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>103CW47</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-GRE-ALP-M-CEL</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>MQF83CH/A：APPLE WATCH ULTRA 49 TI GREEN ALP M-CHN</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>103CW44</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-GRE-ALP-S-CEL</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>MNHQ3CH/A：APPLE WATCH ULTRA 49 TI GREEN ALP S-CHN</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>103CW45</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-MID-OB-CEL</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>MQF63CH/A：APPLE WATCH ULTRA 49 TI MIDNIGHT OB-CHN</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>103CW46</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-ORG-ALP-L-CEL</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>MQF73CH/A：APPLE WATCH ULTRA 49 TI ORANGE ALP L-CHN</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>103CW52</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-ORG-ALP-M-CEL</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>MQFJ3CH/A：APPLE WATCH ULTRA 49 TI ORANGE ALP M-CHN</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>103CW43</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-QRG-ALP-S-CEL</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>MNHP3CH/A：APPLE WATCH ULTRA 49 TI ORANGE ALP S-CHN</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>103CW51</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-STR-ALP-L-CEL</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>MQFD3CH/A：APPLE WATCH ULTRA 49 TI STAR ALP L-CHN</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>103CW50</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-STR-ALP-M-CEL</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>MQFC3CH/A：APPLE WATCH ULTRA 49 TI STAR ALP M-CHN</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>103CW49</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-STR-ALP-S-CEL</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>MQFA3CH/A：APPLE WATCH ULTRA 49 TI STAR ALP S-CHN</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>103CW41</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-WHT-OB-CEL</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>MNHM3CH/A：APPLE WATCH ULTRA 49 TI WHITE OB-CHN</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>103CW55</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-YEL-B-TL-ML-CEL</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>MQFE3CH/A：APPLE WATCH ULTRA 49 TI YLW/B TL M/L-CHN</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>103CW53</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-YEL-B-TL-SM-CEL</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>MNHR3CH/A：APPLE WATCH ULTRA 49 TI YLW/B TL S/M-CHN</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>103CW42</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>AP05-WAT-UL-49-TI-YEL-OB-CEL</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>MNHN3CH/A：APPLE WATCH ULTRA 49 TI YELLOW OB-CHN</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>103CW61</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-APODS-3-LTG</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>MPNY3CH/A：AIRPODS 3RD GN LTG,A2565 A2564 A2897-CHN</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>103CW62</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-APODS-PRO-2</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>MQD83CH/A：AIRPODS PRO, GEN 2,A2931 A2700-CHN</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>103DF14</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-41BD-RED-SP-22-YJ</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>3K929CH/A：APPLE WATCH 41 RED SP DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>103DF03</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-41BD-STR-SP--YJ</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>3J599FE/A：APPLE WATCH 41 STARLIGHT SP DEMO-FAE</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>103DF13</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-41BD-WHI-SP-YJ</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>3K926FE/A：APPLE WATCH 41 WHITE SP DEMO-FAE</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>103DF04</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-45BD-MID-SP-YJ</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>3J606FE/A：APPLE WATCH 45 MIDNIGHT SP DEMO-FAE</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>103DF05</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-45BD-STR-SP-22-YJ</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>3J607FE/A：APPLE WATCH 45 STARLIGHT SP DEMO-FAE</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>103DF15</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-49BD-GRE-ALP-M-YJ</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>3L362FE/A：APPLE WATCH 49 GREEN ALP M DEMO-FAE</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>根</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>103DF08</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-S8BK-45-MID-AL-CEL-YJ</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>3K640CH/A：APPLE WATCH S8 45 MID AL CEL DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>103DF09</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-S8BK-RED-AL-GPS-YJ</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>3K763CH/A：APPLE WATCH S8 41 RED AL GPS DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>103DF12</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-S8BK-SIL-AL-GPS-YJ</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>3K917CH/A：APPLE WATCH S8 41 SILVER AL GPS DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>103DF07</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-SEBK-40-STR-AL-GPS-YJ</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>3K596CH/A：APPLE WATCH SE 40 STAR AL GPS DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>103DF11</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-SEBK-44-MID-AL-CEL-YJ</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>3K790CH/A：APPLE WATCH SE 44 MID AL CEL DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>103DF10</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-SEBK-44-STR-AL-CEL-YJ</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>3K787CH/A：APPLE WATCH SE 44 STAR AL CEL DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>103DF06</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-ULBK-49-TT-CEL-YJ</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>3K591CH/A：APPLE WATCH ULTRA 49 TITANIUM DEMO-CHN</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>103CP64</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-10C-8GB-512GB-MDN</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>MLY43CH/A：MBA M2 13.6 MDN/10C GPU/8GB/512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>103CP60</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-10C-8GB-512GB-SLV</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>MLY03CH/A：MBA M2 13.6 SLV/10C GPU/8GB/512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>103CP58</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-10C-8GB-512GB--SPG</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>MLXX3CH/A：MBA M2 13.6 SPG/10C GPU/8GB/512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>103CP62</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-10C-8GB-512GB-STL</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>MLY23CH/A：MBA M2 13.6 STL/10C GPU/8GB/512GB-CHN</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>103CP63</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-8C-8GB-256GB-MDN</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>MLY33CH/A：MBA M2 13.6 MDN/8C GPU/8GB/256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>103CP59</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-8C-8GB-256GB-SLV</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>MLXY3CH/A：MBA M2 13.6 SLV/8C GPU/8GB/256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>103CP57</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-8C-8GB-256GB-SPG</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>MLXW3CH/A：MBA M2 13.6 SPG/8C GPU/8GB/256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>103CP61</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>AP02-MAC-MBA-M2-13-8C-8GB-256GB-STL</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>MLY13CH/A：MBA M2 13.6 STL/8C GPU/8GB/256GB-CHN</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>103DF74</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-LC-MID</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>MPP43FE/A：IPHONE 14 LE CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>103DF75</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-LC-FGRE</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>MPP53FE/A：IPHONE 14 LE CASE FOREST GREEN-FAE</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>103DF76</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-LC-INK</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>MPP63FE/A：IPHONE 14 LE CASE INK-FAE</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>103DF77</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-LC-UBE</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>MPP73FE/A：IPHONE 14 LE CASE UMBER-FAE</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>103DF78</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-MID</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>MPRU3FE/A：IPHONE 14 SI CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>103DF79</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-SBLU</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>MPRV3FE/A：IPHONE 14 SI CASE STORM BLUE-FAE</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>103DF80</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-RED</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>MPRW3FE/A：IPHONE 14 SI CASE RED-FAE</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>103DF81</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-CPIN</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>MPRX3FE/A：IPHONE 14 SI CASE CHALK PINK-FAE</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>103DF82</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-LIL</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>MPRY3FE/A：IPHONE 14 SI CASE LILAC-FAE</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>103DF83</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-ELD</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>MPT03FE/A：IPHONE 14 SI CASE ELDERBERRY-FAE</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>103DF84</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-SUC</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>MPT13FE/A：IPHONE 14 SI CASE SUCCULENT-FAE</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>103DF85</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-SC-SUN</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>MPT23FE/A：IPHONE 14 SI CASE SUNGLOW-FAE</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>103DF86</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14-CC</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>MPU13FE/A：IPHONE 14 CL CASE-FAE</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>103DF87</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP-LW-RGRE</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>MPPT3FE/A：IPHONE LE WALLET FOREST GREEN-FAE</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>103DF88</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP-LW-INK</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>MPPW3FE/A：IPHONE LE WALLET INK-FAE</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>103DF89</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP-LW-UBE</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>MPPX3FE/A：IPHONE LE WALLET UMBER-FAE</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>103DF90</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP-LW-ORA</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>MPPY3FE/A：IPHONE LE WALLET ORANGE-FAE</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>103DF91</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-LC-MID</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>MPP93FE/A：IPHONE 14 PLUS LE CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>103DF92</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-LC-FGRE</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>MPPA3FE/A：IPHONE 14 PLUS LE CASE FOREST GREEN-FAE</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>103DF93</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-LC-INK</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>MPPC3FE/A：IPHONE 14 PLUS LE CASE INK-FAE</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>103DF94</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-LC-UBE</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>MPPD3FE/A：IPHONE 14 PLUS LE CASE UMBER-FAE</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>103DF95</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-MID</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>MPT33FE/A：IPHONE 14 PLUS SI CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>103DF96</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-SBLU</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>MPT53FE/A：IPHONE 14 PLUS SI CASE STORM BLUE-FAE</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>103DF97</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-RED</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>MPT63FE/A：IPHONE 14 PLUS SI CASE RED-FAE</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>103DF98</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-CPIN</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>MPT73FE/A：IPHONE 14 PLUS SI CASE CHALK PINK-FAE</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>103DF99</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-LIL</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>MPT83FE/A：IPHONE 14 PLUS SI CASE LILAC-FAE</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>103DG01</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-ELD</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>MPT93FE/A：IPHONE 14 PLUS SI CASE ELDERBERRY-FAE</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>103DG02</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-SUC</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>MPTC3FE/A：IPHONE 14 PLUS SI CASE SUCCULENT-FAE</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>103DG03</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-SC-SUN</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>MPTD3FE/A：IPHONE 14 PLUS SI CASE SUNGLOW-FAE</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>103DG04</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PL-CC</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>MPU43FE/A：IPHONE 14 PLUS CL CASE-FAE</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>103DG05</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-LC-MID</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>MPPG3FE/A：IPHONE 14 PRO LE CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>103DG06</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-LC-FGRE</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>MPPH3FE/A：IPHONE 14 PRO LE CASE FOREST GREEN-FAE</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>103DG07</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-LC-UBE</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>MPPK3FE/A：IPHONE 14 PRO LE CASE UMBER-FAE</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>103DG08</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-MID</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>MPTE3FE/A：IPHONE 14 PRO SI CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>103DG09</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-SBLU</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>MPTF3FE/A：IPHONE 14 PRO SI CASE STORM BLUE-FAE</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>103DG10</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-RED</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>MPTG3FE/A：IPHONE 14 PRO SI CASE RED-FAE</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>103DG11</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-CPIN</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>MPTH3FE/A：IPHONE 14 PRO SI CASE CHALK PINK-FAE</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>103DG12</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-LIL</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>MPTJ3FE/A：IPHONE 14 PRO SI CASE LILAC-FAE</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>103DG13</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-ELD</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>MPTK3FE/A：IPHONE 14 PRO SI CASE ELDERBERRY-FAE</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>103DG14</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-SUC</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>MPTL3FE/A：IPHONE 14 PRO SI CASE SUCCULENT-FAE</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>103DG15</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-SC-SUN</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>MPTM3FE/A：IPHONE 14 PRO SI CASE SUNGLOW-FAE</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>103DG16</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14P-CC</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>MPU63FE/A：IPHONE 14 PRO CL CASE-FAE</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>103DG17</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-LC-MID</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>MPPM3FE/A：IPHONE 14 PRO MAX LE CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>103DG18</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-LC-FGRE</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>MPPN3FE/A：IPHONE 14 PRO MAX LE CASE FOREST GRN-FAE</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>103DG19</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-LC-INK</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>MPPP3FE/A：IPHONE 14 PRO MAX LE CASE INK-FAE</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>103DG20</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-LC-UBE</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>MPPQ3FE/A：IPHONE 14 PRO MAX LE CASE UMBER-FAE</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>103DG21</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-ORA</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>MPPR3FE/A：IPHONE 14 PRO MAX LE CASE ORANGE-FAE</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>103DG22</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-MID</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>MPTP3FE/A：IPHONE 14 PRO MAX SI CASE MIDNIGHT-FAE</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>103DG23</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-SBLU</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>MPTQ3FE/A：IPHONE 14 PRO MAX SI CASE STORM BLUE-FAE</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>103DG24</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-RED</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>MPTR3FE/A：IPHONE 14 PRO MAX SI CASE RED-FAE</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>103DG25</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-CPIN</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>MPTT3FE/A：IPHONE 14 PRO MAX SI CASE CHALK PINK-FAE</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>103DG26</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-LIL</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>MPTW3FE/A：IPHONE 14 PRO MAX SI CASE LILAC-FAE</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>103DG27</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-ELD</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>MPTX3FE/A：IPHONE 14 PRO MAX SI CASE ELDERBERRY-FAE</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>103DG28</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-SUC</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>MPTY3FE/A：IPHONE 14 PRO MAX SI CASE SUCCULENT-FAE</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>103DG29</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-SC-SUN</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>MPU03FE/A：IPHONE 14 PRO MAX SI CASE SUNGLOW-FAE</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>103DG30</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>AP06-ACCS-GP-IP14PM-CC</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>MPU73FE/A：IPHONE 14 PRO MAX CL CASE-FAE</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>103DI35</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-SIL-AL-WT-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>MP4L3CH/A：APPLE WATCH S8 45 SIL AL WT SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>103DI42</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-STR-AL-ST-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>MNJ03CH/A：APPLE WATCH S8 41 STAR AL ST SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>103DI41</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-MID-AL-MID-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>MNHW3CH/A：APPLE WATCH S8 41 MID AL MID SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>103DI33</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-MID-AL-MID-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>MNK53CH/A：APPLE WATCH S8 45 MID AL MID SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>103DI34</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-45-STR-AL-ST-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>MNK83CH/A：APPLE WATCH S8 45 STAR AL ST SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>台</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>103DI44</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>AP05-WAT-S8-41-SIL-AL-WT-SP-CEL</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>MP4D3CH/A：APPLE WATCH S8 41 SIL AL WT SP CEL-CHN</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>台</t>
         </is>
       </c>
     </row>
